--- a/450_DSA_Questions/FINAL450.xlsx
+++ b/450_DSA_Questions/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Documents\Cpp_Projects\Cpp-Projects-1\450_DSA_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE68F32-0151-47B4-A549-321EFC8F74F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,13 +1420,16 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1494,6 +1491,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1516,7 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,6 +1545,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1858,17 +1866,17 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,9 +1898,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
@@ -1901,8 +1907,8 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
+      <c r="C6" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1912,8 +1918,8 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
+      <c r="C7" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -7378,5 +7384,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId447"/>
 </worksheet>
 </file>
--- a/450_DSA_Questions/FINAL450.xlsx
+++ b/450_DSA_Questions/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Documents\Cpp_Projects\Cpp-Projects-1\450_DSA_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE68F32-0151-47B4-A549-321EFC8F74F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EB950-59A8-4C7D-B64D-B805878EFE9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1929,8 +1929,8 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1940,8 +1940,8 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1951,8 +1951,8 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+      <c r="C10" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1962,8 +1962,8 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
+      <c r="C11" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1973,8 +1973,8 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="C12" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1984,8 +1984,8 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
+      <c r="C13" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -1995,8 +1995,8 @@
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
+      <c r="C14" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2006,8 +2006,8 @@
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
+      <c r="C15" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2017,8 +2017,8 @@
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
+      <c r="C16" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2028,8 +2028,8 @@
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
+      <c r="C17" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2039,8 +2039,8 @@
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
+      <c r="C18" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2050,8 +2050,8 @@
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
+      <c r="C19" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
@@ -2061,8 +2061,8 @@
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
+      <c r="C20" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2072,8 +2072,8 @@
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
+      <c r="C21" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2083,8 +2083,8 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
+      <c r="C22" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2094,8 +2094,8 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
+      <c r="C23" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2105,8 +2105,8 @@
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
+      <c r="C24" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2116,8 +2116,8 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
+      <c r="C25" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2127,8 +2127,8 @@
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
+      <c r="C26" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
@@ -2138,8 +2138,8 @@
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
+      <c r="C27" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2149,8 +2149,8 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
+      <c r="C28" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
@@ -2160,8 +2160,8 @@
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
+      <c r="C29" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2171,8 +2171,8 @@
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
+      <c r="C30" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2182,8 +2182,8 @@
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
+      <c r="C31" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
@@ -2193,8 +2193,8 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
+      <c r="C32" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2204,8 +2204,8 @@
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
+      <c r="C33" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2215,8 +2215,8 @@
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
+      <c r="C34" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2226,8 +2226,8 @@
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
+      <c r="C35" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
@@ -2237,8 +2237,8 @@
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
+      <c r="C36" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2248,8 +2248,8 @@
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
+      <c r="C37" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
@@ -2259,8 +2259,8 @@
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
+      <c r="C38" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
@@ -2270,8 +2270,8 @@
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
+      <c r="C39" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -2281,8 +2281,8 @@
       <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>4</v>
+      <c r="C40" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
@@ -2292,8 +2292,8 @@
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>4</v>
+      <c r="C41" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
